--- a/paper/ref/sheet 10.xlsx
+++ b/paper/ref/sheet 10.xlsx
@@ -1810,11 +1810,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2100977512"/>
-        <c:axId val="2104198424"/>
+        <c:axId val="2100154872"/>
+        <c:axId val="2100277992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2100977512"/>
+        <c:axId val="2100154872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1842,7 +1842,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104198424"/>
+        <c:crossAx val="2100277992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1850,7 +1850,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2104198424"/>
+        <c:axId val="2100277992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1880,7 +1880,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100977512"/>
+        <c:crossAx val="2100154872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2238,11 +2238,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2055054232"/>
-        <c:axId val="-2131327976"/>
+        <c:axId val="2107335544"/>
+        <c:axId val="-2093528280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2055054232"/>
+        <c:axId val="2107335544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2269,7 +2269,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131327976"/>
+        <c:crossAx val="-2093528280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2277,7 +2277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131327976"/>
+        <c:axId val="-2093528280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2306,7 +2306,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2055054232"/>
+        <c:crossAx val="2107335544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2621,11 +2621,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2131382552"/>
-        <c:axId val="-2096052424"/>
+        <c:axId val="-2093909512"/>
+        <c:axId val="-2093904008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2131382552"/>
+        <c:axId val="-2093909512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2652,7 +2652,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2096052424"/>
+        <c:crossAx val="-2093904008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2660,7 +2660,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2096052424"/>
+        <c:axId val="-2093904008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2689,7 +2689,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131382552"/>
+        <c:crossAx val="-2093909512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3004,11 +3004,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2131599736"/>
-        <c:axId val="-2131620312"/>
+        <c:axId val="-2093329272"/>
+        <c:axId val="2107465512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2131599736"/>
+        <c:axId val="-2093329272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3035,7 +3035,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131620312"/>
+        <c:crossAx val="2107465512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3043,7 +3043,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131620312"/>
+        <c:axId val="2107465512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3072,7 +3072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131599736"/>
+        <c:crossAx val="-2093329272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3180,11 +3180,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2095453800"/>
-        <c:axId val="-2131538136"/>
+        <c:axId val="-2093361336"/>
+        <c:axId val="2111620776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2095453800"/>
+        <c:axId val="-2093361336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3211,7 +3211,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131538136"/>
+        <c:crossAx val="2111620776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3219,7 +3219,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131538136"/>
+        <c:axId val="2111620776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3256,7 +3256,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2095453800"/>
+        <c:crossAx val="-2093361336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3631,11 +3631,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2096096936"/>
-        <c:axId val="-2131635000"/>
+        <c:axId val="2099532376"/>
+        <c:axId val="2099482296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2096096936"/>
+        <c:axId val="2099532376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3644,7 +3644,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131635000"/>
+        <c:crossAx val="2099482296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3652,7 +3652,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131635000"/>
+        <c:axId val="2099482296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3691,7 +3691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2096096936"/>
+        <c:crossAx val="2099532376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3838,11 +3838,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2131686584"/>
-        <c:axId val="-2131704968"/>
+        <c:axId val="2099548664"/>
+        <c:axId val="2099557544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2131686584"/>
+        <c:axId val="2099548664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3851,7 +3851,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131704968"/>
+        <c:crossAx val="2099557544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3859,7 +3859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131704968"/>
+        <c:axId val="2099557544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3888,7 +3888,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131686584"/>
+        <c:crossAx val="2099548664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4067,11 +4067,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2095164344"/>
-        <c:axId val="-2095436264"/>
+        <c:axId val="2100240744"/>
+        <c:axId val="2100248216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2095164344"/>
+        <c:axId val="2100240744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4099,7 +4099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2095436264"/>
+        <c:crossAx val="2100248216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4107,7 +4107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2095436264"/>
+        <c:axId val="2100248216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4136,7 +4136,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2095164344"/>
+        <c:crossAx val="2100240744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4581,11 +4581,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2131360536"/>
-        <c:axId val="-2131579240"/>
+        <c:axId val="-2093169208"/>
+        <c:axId val="2099999160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2131360536"/>
+        <c:axId val="-2093169208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4612,7 +4612,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131579240"/>
+        <c:crossAx val="2099999160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4620,7 +4620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131579240"/>
+        <c:axId val="2099999160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4649,7 +4649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131360536"/>
+        <c:crossAx val="-2093169208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5153,11 +5153,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2130740360"/>
-        <c:axId val="-2130915128"/>
+        <c:axId val="2107191832"/>
+        <c:axId val="-2093968920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2130740360"/>
+        <c:axId val="2107191832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5184,7 +5184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130915128"/>
+        <c:crossAx val="-2093968920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5192,7 +5192,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2130915128"/>
+        <c:axId val="-2093968920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5221,7 +5221,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130740360"/>
+        <c:crossAx val="2107191832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5738,11 +5738,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2138085112"/>
-        <c:axId val="-2138093112"/>
+        <c:axId val="2106638920"/>
+        <c:axId val="2089379176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2138085112"/>
+        <c:axId val="2106638920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5769,7 +5769,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138093112"/>
+        <c:crossAx val="2089379176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5777,7 +5777,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138093112"/>
+        <c:axId val="2089379176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5806,7 +5806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138085112"/>
+        <c:crossAx val="2106638920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5977,11 +5977,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2138509784"/>
-        <c:axId val="2104112536"/>
+        <c:axId val="2099781624"/>
+        <c:axId val="-2093352792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2138509784"/>
+        <c:axId val="2099781624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6003,13 +6003,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104112536"/>
+        <c:crossAx val="-2093352792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6017,7 +6016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2104112536"/>
+        <c:axId val="-2093352792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6040,14 +6039,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138509784"/>
+        <c:crossAx val="2099781624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6310,11 +6308,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2138128328"/>
-        <c:axId val="-2138134440"/>
+        <c:axId val="2099258008"/>
+        <c:axId val="2099909192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2138128328"/>
+        <c:axId val="2099258008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6323,7 +6321,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138134440"/>
+        <c:crossAx val="2099909192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6331,7 +6329,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138134440"/>
+        <c:axId val="2099909192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6360,7 +6358,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138128328"/>
+        <c:crossAx val="2099258008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6685,11 +6683,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2138181928"/>
-        <c:axId val="-2138189224"/>
+        <c:axId val="2099968360"/>
+        <c:axId val="2111203016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2138181928"/>
+        <c:axId val="2099968360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6699,7 +6697,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138189224"/>
+        <c:crossAx val="2111203016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6707,7 +6705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138189224"/>
+        <c:axId val="2111203016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6718,7 +6716,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138181928"/>
+        <c:crossAx val="2099968360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6869,11 +6867,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2138219864"/>
-        <c:axId val="-2138216856"/>
+        <c:axId val="2100029736"/>
+        <c:axId val="2100245784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2138219864"/>
+        <c:axId val="2100029736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6883,7 +6881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138216856"/>
+        <c:crossAx val="2100245784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6891,7 +6889,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138216856"/>
+        <c:axId val="2100245784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6902,7 +6900,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138219864"/>
+        <c:crossAx val="2100029736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7043,11 +7041,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2138250744"/>
-        <c:axId val="-2138247928"/>
+        <c:axId val="2099830968"/>
+        <c:axId val="-2093972120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2138250744"/>
+        <c:axId val="2099830968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7057,7 +7055,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138247928"/>
+        <c:crossAx val="-2093972120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7065,7 +7063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138247928"/>
+        <c:axId val="-2093972120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7076,7 +7074,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138250744"/>
+        <c:crossAx val="2099830968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7289,11 +7287,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2138292664"/>
-        <c:axId val="-2138289688"/>
+        <c:axId val="2107410888"/>
+        <c:axId val="2099855080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2138292664"/>
+        <c:axId val="2107410888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7302,7 +7300,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138289688"/>
+        <c:crossAx val="2099855080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7310,7 +7308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138289688"/>
+        <c:axId val="2099855080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7333,14 +7331,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138292664"/>
+        <c:crossAx val="2107410888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7416,7 +7413,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7547,11 +7543,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2138338872"/>
-        <c:axId val="-2138335896"/>
+        <c:axId val="2100032840"/>
+        <c:axId val="2100055816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2138338872"/>
+        <c:axId val="2100032840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7560,7 +7556,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138335896"/>
+        <c:crossAx val="2100055816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7568,7 +7564,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138335896"/>
+        <c:axId val="2100055816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7591,14 +7587,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138338872"/>
+        <c:crossAx val="2100032840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7673,7 +7668,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7804,11 +7798,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2138367656"/>
-        <c:axId val="-2138375736"/>
+        <c:axId val="-2093932568"/>
+        <c:axId val="-2093929592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2138367656"/>
+        <c:axId val="-2093932568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7817,7 +7811,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138375736"/>
+        <c:crossAx val="-2093929592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7825,7 +7819,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138375736"/>
+        <c:axId val="-2093929592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7848,14 +7842,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138367656"/>
+        <c:crossAx val="-2093932568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7931,7 +7924,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8062,11 +8054,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2112369496"/>
-        <c:axId val="2112328136"/>
+        <c:axId val="2106617912"/>
+        <c:axId val="-2093330600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2112369496"/>
+        <c:axId val="2106617912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8075,7 +8067,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112328136"/>
+        <c:crossAx val="-2093330600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8083,7 +8075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2112328136"/>
+        <c:axId val="-2093330600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8106,14 +8098,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112369496"/>
+        <c:crossAx val="2106617912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8184,7 +8175,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8553,11 +8543,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2110785272"/>
-        <c:axId val="-2093592872"/>
+        <c:axId val="-2093536424"/>
+        <c:axId val="2100188088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2110785272"/>
+        <c:axId val="-2093536424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8579,14 +8569,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2093592872"/>
+        <c:crossAx val="2100188088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8594,7 +8583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2093592872"/>
+        <c:axId val="2100188088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8617,14 +8606,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110785272"/>
+        <c:crossAx val="-2093536424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8700,7 +8688,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8786,11 +8773,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2112110904"/>
-        <c:axId val="-2093219272"/>
+        <c:axId val="2089389416"/>
+        <c:axId val="2111102360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2112110904"/>
+        <c:axId val="2089389416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8799,7 +8786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2093219272"/>
+        <c:crossAx val="2111102360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8807,7 +8794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2093219272"/>
+        <c:axId val="2111102360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8830,14 +8817,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112110904"/>
+        <c:crossAx val="2089389416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8986,11 +8972,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2100851656"/>
-        <c:axId val="2054270776"/>
+        <c:axId val="2107195176"/>
+        <c:axId val="-2093177432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2100851656"/>
+        <c:axId val="2107195176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9012,13 +8998,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2054270776"/>
+        <c:crossAx val="-2093177432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9026,7 +9011,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2054270776"/>
+        <c:axId val="-2093177432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9049,14 +9034,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100851656"/>
+        <c:crossAx val="2107195176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9132,7 +9116,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9343,11 +9326,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2112610152"/>
-        <c:axId val="2045416920"/>
+        <c:axId val="-2093847832"/>
+        <c:axId val="-2093666312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2112610152"/>
+        <c:axId val="-2093847832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9356,7 +9339,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2045416920"/>
+        <c:crossAx val="-2093666312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9364,7 +9347,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2045416920"/>
+        <c:axId val="-2093666312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9387,14 +9370,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112610152"/>
+        <c:crossAx val="-2093847832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9451,7 +9433,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10015,11 +9996,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2138460840"/>
-        <c:axId val="-2138486648"/>
+        <c:axId val="2054099192"/>
+        <c:axId val="-2120086344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2138460840"/>
+        <c:axId val="2054099192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10041,13 +10022,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138486648"/>
+        <c:crossAx val="-2120086344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10055,7 +10035,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138486648"/>
+        <c:axId val="-2120086344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10078,14 +10058,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138460840"/>
+        <c:crossAx val="2054099192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10172,7 +10151,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10722,11 +10700,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2112047576"/>
-        <c:axId val="2112574696"/>
+        <c:axId val="-2119216328"/>
+        <c:axId val="-2119211096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2112047576"/>
+        <c:axId val="-2119216328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10748,13 +10726,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112574696"/>
+        <c:crossAx val="-2119211096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10762,7 +10739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2112574696"/>
+        <c:axId val="-2119211096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10785,14 +10762,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112047576"/>
+        <c:crossAx val="-2119216328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10879,7 +10855,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11429,11 +11404,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2138533336"/>
-        <c:axId val="-2138527864"/>
+        <c:axId val="-2119249176"/>
+        <c:axId val="-2119243832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2138533336"/>
+        <c:axId val="-2119249176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11455,13 +11430,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138527864"/>
+        <c:crossAx val="-2119243832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11469,7 +11443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138527864"/>
+        <c:axId val="-2119243832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11492,14 +11466,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138533336"/>
+        <c:crossAx val="-2119249176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11586,7 +11559,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12136,11 +12108,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2138622040"/>
-        <c:axId val="-2138616568"/>
+        <c:axId val="-2120097240"/>
+        <c:axId val="-2119457832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2138622040"/>
+        <c:axId val="-2120097240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12162,13 +12134,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138616568"/>
+        <c:crossAx val="-2119457832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12176,7 +12147,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138616568"/>
+        <c:axId val="-2119457832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12199,14 +12170,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138622040"/>
+        <c:crossAx val="-2120097240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12360,11 +12330,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2095102472"/>
-        <c:axId val="2095778264"/>
+        <c:axId val="-2119390024"/>
+        <c:axId val="2095782584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2095102472"/>
+        <c:axId val="-2119390024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12373,7 +12343,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095778264"/>
+        <c:crossAx val="2095782584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12381,7 +12351,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2095778264"/>
+        <c:axId val="2095782584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -12393,7 +12363,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095102472"/>
+        <c:crossAx val="-2119390024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12542,11 +12512,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2104120776"/>
-        <c:axId val="-2095391880"/>
+        <c:axId val="2107504904"/>
+        <c:axId val="-2093616952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2104120776"/>
+        <c:axId val="2107504904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12574,7 +12544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2095391880"/>
+        <c:crossAx val="-2093616952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12582,7 +12552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2095391880"/>
+        <c:axId val="-2093616952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12612,7 +12582,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104120776"/>
+        <c:crossAx val="2107504904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12700,9 +12670,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
@@ -12759,7 +12729,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -12808,11 +12778,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2105938824"/>
-        <c:axId val="2106104296"/>
+        <c:axId val="2111074200"/>
+        <c:axId val="-2093014952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2105938824"/>
+        <c:axId val="2111074200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12821,7 +12791,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106104296"/>
+        <c:crossAx val="-2093014952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12829,7 +12799,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106104296"/>
+        <c:axId val="-2093014952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12859,7 +12829,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105938824"/>
+        <c:crossAx val="2111074200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -13188,11 +13158,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2095619880"/>
-        <c:axId val="-2095637800"/>
+        <c:axId val="-2093980248"/>
+        <c:axId val="-2093801672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2095619880"/>
+        <c:axId val="-2093980248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13219,7 +13189,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2095637800"/>
+        <c:crossAx val="-2093801672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13227,7 +13197,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2095637800"/>
+        <c:axId val="-2093801672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13256,7 +13226,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2095619880"/>
+        <c:crossAx val="-2093980248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13677,11 +13647,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2131326216"/>
-        <c:axId val="2104152040"/>
+        <c:axId val="2106851448"/>
+        <c:axId val="-2093116200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2131326216"/>
+        <c:axId val="2106851448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13709,7 +13679,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104152040"/>
+        <c:crossAx val="-2093116200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13717,7 +13687,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2104152040"/>
+        <c:axId val="-2093116200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13746,7 +13716,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131326216"/>
+        <c:crossAx val="2106851448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14090,11 +14060,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2054290456"/>
-        <c:axId val="2104387512"/>
+        <c:axId val="2111021032"/>
+        <c:axId val="2106665576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2054290456"/>
+        <c:axId val="2111021032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14122,7 +14092,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104387512"/>
+        <c:crossAx val="2106665576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14130,7 +14100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2104387512"/>
+        <c:axId val="2106665576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14159,7 +14129,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2054290456"/>
+        <c:crossAx val="2111021032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14498,11 +14468,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2054260456"/>
-        <c:axId val="-2095154264"/>
+        <c:axId val="-2093504552"/>
+        <c:axId val="-2093704456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2054260456"/>
+        <c:axId val="-2093504552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14529,7 +14499,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2095154264"/>
+        <c:crossAx val="-2093704456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14537,7 +14507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2095154264"/>
+        <c:axId val="-2093704456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14574,7 +14544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2054260456"/>
+        <c:crossAx val="-2093504552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16098,8 +16068,8 @@
   </sheetPr>
   <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="B69" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
